--- a/CLASS WORK.xlsx
+++ b/CLASS WORK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tasninshomee/Library/Containers/com.apple.mail/Data/Library/Mail Downloads/5FCD3CFB-110C-420C-BDA3-B9512D9AD378/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tasninshomee/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD153740-0C4C-474B-8312-B5F161E1D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0B1A8-323D-3747-A10D-EFEF8FD952E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{1CAD0015-1198-CB41-AFC8-70E26DE1BEEB}"/>
   </bookViews>
@@ -104,10 +104,6 @@
 </t>
   </si>
   <si>
-    <t>when no song info,file name displayed 
-in the  song title line 1</t>
-  </si>
-  <si>
     <t>verifying the file name shown
 in the song title,when no 
 song information available</t>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>when no song info,file name displayed 
+in the  song title line 1…..</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,22 +544,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -584,22 +584,22 @@
     </row>
     <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CLASS WORK.xlsx
+++ b/CLASS WORK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tasninshomee/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0B1A8-323D-3747-A10D-EFEF8FD952E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C84ECF-DC38-D544-98FF-75F0085CBC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{1CAD0015-1198-CB41-AFC8-70E26DE1BEEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>test case name /number</t>
   </si>
@@ -138,6 +138,9 @@
   <si>
     <t>when no song info,file name displayed 
 in the  song title line 1…..</t>
+  </si>
+  <si>
+    <t>pushing to github</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,6 +604,9 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CLASS WORK.xlsx
+++ b/CLASS WORK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tasninshomee/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C84ECF-DC38-D544-98FF-75F0085CBC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75321AAA-4E9F-C845-9BB3-2FC216599E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{1CAD0015-1198-CB41-AFC8-70E26DE1BEEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>test case name /number</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>pushing to github</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,6 +610,9 @@
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
